--- a/temp.xlsx
+++ b/temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1788" yWindow="1716" windowWidth="19134" windowHeight="9780" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1464" yWindow="1464" windowWidth="19134" windowHeight="9780" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,12 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -33,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,12 +47,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +451,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B1" sqref="B1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -435,6 +459,15 @@
     <col width="10.15625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData/>
+  <dataValidations count="2">
+    <dataValidation sqref="F1:F5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$AI$1:$AI$4</formula1>
+    </dataValidation>
+    <dataValidation sqref="G1:G5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>$AJ$1:$AJ$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="274" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>